--- a/Planung_Entscheiden/Gantt-Diagramm.xlsx
+++ b/Planung_Entscheiden/Gantt-Diagramm.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A511E8D-64E0-4D1C-9DE3-C8E81D3EBF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFE74EF-94FB-4AC5-AC4A-391AE3F56D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektplan" sheetId="11" r:id="rId1"/>
-    <sheet name="Info" sheetId="12" r:id="rId2"/>
+    <sheet name="Arbeitspakette" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Anzeigewoche">Projektplan!$E$4</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -151,50 +151,6 @@
     <t>https://www.vertex42.com/ExcelTemplates/simple-gantt-chart.html</t>
   </si>
   <si>
-    <t>Über diese Vorlage</t>
-  </si>
-  <si>
-    <t>Diese Vorlage bietet eine einfache Möglichkeit, ein Gantt-Diagramm zu erstellen, um Ihr Projekt zu visualisieren und seine Nachverfolgung zu erleichtern. Geben Sie einfach Ihre Aufgaben sowie das Start- und Enddatum ein; es sind keine Formeln erforderlich. Die Balken im Gantt-Diagramm stellen die Dauer der Aufgabe dar und werden mithilfe bedingtes Formatierungen angezeigt. Fügen Sie neue Aufgaben ein, indem Sie neue Zeilen einfügen.</t>
-  </si>
-  <si>
-    <t>Leitfaden für die Sprachausgabe</t>
-  </si>
-  <si>
-    <t>Diese Arbeitsmappe enthält 2 Arbeitsblätter. 
-Arbeitszeittabelle
-Info
-Die Anweisungen für jedes Arbeitsblatt befinden sich in Spalte A ab Zelle A1 der einzelnen Arbeitsblätter. Sie sind in verborgenem Text geschrieben. Jeder Schritt führt Sie durch die Informationen in der betreffenden Zeile. Jeder nachfolgende Schritt fährt in den Zellen A2, A3 usw. fort, sofern nicht ausdrücklich anders angegeben. Beispielsweise kann der Anweisungstext etwa für den nächsten Schritt "Mit Zelle 6 fortfahren" besagen. 
-Dieser verborgene Text wird nicht gedruckt.
-Um diese Anweisungen aus dem Arbeitsblatt zu entfernen, löschen Sie einfach Spalte A.</t>
-  </si>
-  <si>
-    <t>Weitere Hilfe</t>
-  </si>
-  <si>
-    <t>Klicken Sie auf den Link unten, um zu vertex42.com zu gehen und mehr über die Verwendung dieser Vorlage zu erfahren, z. B. wie Tage und Arbeitstage berechnet werden, wie Aufgabenabhängigkeiten erstellt werden, wie die Farben der Balken geändert werden, wie eine Bildlaufleiste hinzugefügt wird, um die Anzeigewoche einfacher zu ändern, wie der in dem Diagramm angezeigte Datumsbereich geändert wird usw.</t>
-  </si>
-  <si>
-    <t>Verwenden des einfachen Gantt-Diagramms</t>
-  </si>
-  <si>
-    <t>Weitere Projektmanagementvorlagen</t>
-  </si>
-  <si>
-    <t>Rufen Sie Vertex42.com auf, um weitere Projektmanagementvorlagen herunterzuladen, einschließlich unterschiedlicher Typen von Projektplänen, Gantt-Diagramme, Aufgabenlisten usw.</t>
-  </si>
-  <si>
-    <t>Projektmanagementvorlagen</t>
-  </si>
-  <si>
-    <t>Informationen zu Vertex42</t>
-  </si>
-  <si>
-    <t>Vertex42.com bietet mehr als 300 professionell entworfene Tabellenkalkulationsvorlagen für die Nutzung im Geschäft, zu Hause und in Bildungseinrichtungen – die meisten können Sie kostenlos herunterladen. Die Sammlung beinhaltet eine Vielzahl von Kalendern, Planern und Zeitplänen sowie Tabellen für die private Finanzkalkulation zur Erstellung von Budgets, Reduzierung von Belastungen und Amortisation von Darlehen.</t>
-  </si>
-  <si>
-    <t>Unternehmen werden bei Rechnungen, Arbeitszeittabellen, Bestandstrackern, Geschäftsberichten und Vorlagen für die Projektplanung fündig. Lehrer und Schüler finden Ressourcen wie Stundenpläne, Klassenbücher und Teilnahmebögen. Organisieren Sie Ihr Familienleben mit Speiseplänen, Checklisten und Übungsprotokollen. Jede Vorlage wurde gründlich recherchiert, verfeinert und im Lauf der Zeit anhand des Feedbacks von Tausenden von Benutzern verbessert.</t>
-  </si>
-  <si>
     <t>Webseite realisieren</t>
   </si>
   <si>
@@ -213,27 +169,12 @@
     <t>Kontrollieren</t>
   </si>
   <si>
-    <t>Projektbeschreinung</t>
-  </si>
-  <si>
     <t>Gruppe</t>
   </si>
   <si>
     <t>Gantt-Diagramm</t>
   </si>
   <si>
-    <t>Homepage</t>
-  </si>
-  <si>
-    <t>Produktpage</t>
-  </si>
-  <si>
-    <t>Über uns Page</t>
-  </si>
-  <si>
-    <t>Kontaktpage</t>
-  </si>
-  <si>
     <t>Überarbeiten</t>
   </si>
   <si>
@@ -277,6 +218,114 @@
   </si>
   <si>
     <t>Navbar/Footer</t>
+  </si>
+  <si>
+    <t>Homepage Teil 1</t>
+  </si>
+  <si>
+    <t>Homepage Teil 2</t>
+  </si>
+  <si>
+    <t>Produktpage Teil 1</t>
+  </si>
+  <si>
+    <t>Produktpage Teil 2</t>
+  </si>
+  <si>
+    <t>Über uns Page Teil 1</t>
+  </si>
+  <si>
+    <t>Über uns Page Teil 2</t>
+  </si>
+  <si>
+    <t>Kontakt Page Teil 1</t>
+  </si>
+  <si>
+    <t>Kontakt Page Teil 2</t>
+  </si>
+  <si>
+    <t>Präsentation vorbereiten</t>
+  </si>
+  <si>
+    <t>Arbeitspakete</t>
+  </si>
+  <si>
+    <t>Inhalt</t>
+  </si>
+  <si>
+    <t>Projektbeschreibung</t>
+  </si>
+  <si>
+    <t>Kontrollieren/Auswerten</t>
+  </si>
+  <si>
+    <t>Sämmtliche Informationen über Thema sammeln (Programmiersprache, Entwicklungsumgebung, etc).</t>
+  </si>
+  <si>
+    <t>Projekt mittels SMART Regel genau beschreiben / Ziele festlegen</t>
+  </si>
+  <si>
+    <t>Planen was in der nächsten Zeit gemacht wird</t>
+  </si>
+  <si>
+    <t>Diagramm indem die nächsten Wochen geplant werden(wer, was, wann)</t>
+  </si>
+  <si>
+    <t>Besprechen und entscheiden welche Inhalte auf die Webseite kommen sollen</t>
+  </si>
+  <si>
+    <t>Layout visualisiern und für eines entscheiden</t>
+  </si>
+  <si>
+    <t>Definieren was uns wie wichtig ist</t>
+  </si>
+  <si>
+    <t>Erster Teil der Homepage(Background, Slogan)</t>
+  </si>
+  <si>
+    <t>Zweiter Teil der Homepage(Button, Navbar, Footer)</t>
+  </si>
+  <si>
+    <t>Erster Teil der Produktpage(Produkt mit Preis, Beschreibung etc, Bild)</t>
+  </si>
+  <si>
+    <t>Zweiter Teil der Produktpage(Slideshow, Bewertungen, Navbar, Footer)</t>
+  </si>
+  <si>
+    <t>Erster Teil der Über uns Page(Mitarbeiter, Bild)</t>
+  </si>
+  <si>
+    <t>Zweiter Teil der Über uns Page(Text, Navbar, Footer)</t>
+  </si>
+  <si>
+    <t>Erster Teil der Kontakt Page(Standort, Bild)</t>
+  </si>
+  <si>
+    <t>Zweiter Teil der Kontakt Page(Formular, Navbar, Footer)</t>
+  </si>
+  <si>
+    <t>Navbar mit Navigationselemementen und Logo erstellen / Footer mit Datenschutz und Allgemeinen Infos erstellen</t>
+  </si>
+  <si>
+    <t>Überarbeitung und Besprechung der Pages</t>
+  </si>
+  <si>
+    <t>Ziele anschauen und abhacken</t>
+  </si>
+  <si>
+    <t>Nicht erreichte Ziele verbessern</t>
+  </si>
+  <si>
+    <t>Schlussendlich auswerten/bewerten</t>
+  </si>
+  <si>
+    <t>Endprodukt Präsentation erstellen/lernen</t>
+  </si>
+  <si>
+    <t>Produkt vor Klasse präsentieren</t>
+  </si>
+  <si>
+    <t>Thema finden</t>
   </si>
 </sst>
 </file>
@@ -294,7 +343,7 @@
     <numFmt numFmtId="171" formatCode="d/\ mmm\ yyyy"/>
     <numFmt numFmtId="172" formatCode="d"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,49 +459,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D2129"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="4" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -561,8 +567,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -814,6 +836,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -1049,7 +1077,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="9" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1071,49 +1099,49 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1211,39 +1239,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1299,11 +1299,8 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,6 +1357,12 @@
     <xf numFmtId="172" fontId="11" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1438,7 +1441,37 @@
     <cellStyle name="zAusgeblText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
     <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1565,15 +1598,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Aufgabenliste" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
-      <tableStyleElement type="totalRow" dxfId="9"/>
-      <tableStyleElement type="firstColumn" dxfId="8"/>
-      <tableStyleElement type="lastColumn" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="14"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="totalRow" dxfId="12"/>
+      <tableStyleElement type="firstColumn" dxfId="11"/>
+      <tableStyleElement type="lastColumn" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1734,62 +1767,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1905000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>523875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Bild 1" descr="Vertex42-Logo">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8638EF3-2DAE-40BC-A45A-2B8C536FAB0D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="190500" y="95250"/>
-          <a:ext cx="1905000" cy="428625"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2061,16 +2038,16 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL33"/>
+  <dimension ref="A1:BO38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="68" zoomScaleNormal="64" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BO24" sqref="BO24"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="53" zoomScaleNormal="64" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="45" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="35" customWidth="1"/>
     <col min="2" max="2" width="31.36328125" customWidth="1"/>
     <col min="3" max="3" width="30.7265625" customWidth="1"/>
     <col min="4" max="4" width="10.7265625" customWidth="1"/>
@@ -2082,378 +2059,379 @@
     <col min="69" max="70" width="10.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
-        <v>38</v>
+      <c r="B1" s="39" t="s">
+        <v>25</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
       <c r="F1" s="34"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="67" t="s">
+      <c r="I1" s="57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="68" t="s">
+      <c r="B2" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:67" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="93" t="s">
+      <c r="B3" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="94"/>
-      <c r="E3" s="91">
+      <c r="D3" s="87"/>
+      <c r="E3" s="84">
         <v>44904</v>
       </c>
-      <c r="F3" s="92"/>
-    </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="46" t="s">
+      <c r="F3" s="85"/>
+    </row>
+    <row r="4" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="93" t="s">
+      <c r="C4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="94"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="7">
         <v>0.5</v>
       </c>
-      <c r="I4" s="88">
+      <c r="I4" s="81">
         <f>I5</f>
         <v>44896.5</v>
       </c>
-      <c r="J4" s="89"/>
-      <c r="K4" s="89"/>
-      <c r="L4" s="89"/>
-      <c r="M4" s="89"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="88">
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="83"/>
+      <c r="P4" s="81">
         <f>P5</f>
         <v>44903.5</v>
       </c>
-      <c r="Q4" s="89"/>
-      <c r="R4" s="89"/>
-      <c r="S4" s="89"/>
-      <c r="T4" s="89"/>
-      <c r="U4" s="89"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="88">
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="83"/>
+      <c r="W4" s="81">
         <f>W5</f>
         <v>44910.5</v>
       </c>
-      <c r="X4" s="89"/>
-      <c r="Y4" s="89"/>
-      <c r="Z4" s="89"/>
-      <c r="AA4" s="89"/>
-      <c r="AB4" s="89"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="88">
+      <c r="X4" s="82"/>
+      <c r="Y4" s="82"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="82"/>
+      <c r="AC4" s="83"/>
+      <c r="AD4" s="81">
         <f>AD5</f>
         <v>44917.5</v>
       </c>
-      <c r="AE4" s="89"/>
-      <c r="AF4" s="89"/>
-      <c r="AG4" s="89"/>
-      <c r="AH4" s="89"/>
-      <c r="AI4" s="89"/>
-      <c r="AJ4" s="90"/>
-      <c r="AK4" s="88">
+      <c r="AE4" s="82"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="82"/>
+      <c r="AI4" s="82"/>
+      <c r="AJ4" s="83"/>
+      <c r="AK4" s="81">
         <f>AK5</f>
         <v>44924.5</v>
       </c>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="89"/>
-      <c r="AN4" s="89"/>
-      <c r="AO4" s="89"/>
-      <c r="AP4" s="89"/>
-      <c r="AQ4" s="90"/>
-      <c r="AR4" s="88">
+      <c r="AL4" s="82"/>
+      <c r="AM4" s="82"/>
+      <c r="AN4" s="82"/>
+      <c r="AO4" s="82"/>
+      <c r="AP4" s="82"/>
+      <c r="AQ4" s="83"/>
+      <c r="AR4" s="81">
         <f>AR5</f>
         <v>44931.5</v>
       </c>
-      <c r="AS4" s="89"/>
-      <c r="AT4" s="89"/>
-      <c r="AU4" s="89"/>
-      <c r="AV4" s="89"/>
-      <c r="AW4" s="89"/>
-      <c r="AX4" s="90"/>
-      <c r="AY4" s="88">
+      <c r="AS4" s="82"/>
+      <c r="AT4" s="82"/>
+      <c r="AU4" s="82"/>
+      <c r="AV4" s="82"/>
+      <c r="AW4" s="82"/>
+      <c r="AX4" s="83"/>
+      <c r="AY4" s="81">
         <f>AY5</f>
         <v>44938.5</v>
       </c>
-      <c r="AZ4" s="89"/>
-      <c r="BA4" s="89"/>
-      <c r="BB4" s="89"/>
-      <c r="BC4" s="89"/>
-      <c r="BD4" s="89"/>
-      <c r="BE4" s="90"/>
-      <c r="BF4" s="88">
+      <c r="AZ4" s="82"/>
+      <c r="BA4" s="82"/>
+      <c r="BB4" s="82"/>
+      <c r="BC4" s="82"/>
+      <c r="BD4" s="82"/>
+      <c r="BE4" s="83"/>
+      <c r="BF4" s="81">
         <f>BF5</f>
         <v>44945.5</v>
       </c>
-      <c r="BG4" s="89"/>
-      <c r="BH4" s="89"/>
-      <c r="BI4" s="89"/>
-      <c r="BJ4" s="89"/>
-      <c r="BK4" s="89"/>
-      <c r="BL4" s="90"/>
-    </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="46" t="s">
+      <c r="BG4" s="82"/>
+      <c r="BH4" s="82"/>
+      <c r="BI4" s="82"/>
+      <c r="BJ4" s="82"/>
+      <c r="BK4" s="82"/>
+      <c r="BL4" s="83"/>
+      <c r="BO4" s="78"/>
+    </row>
+    <row r="5" spans="1:67" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="I5" s="85">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="I5" s="74">
         <f>Projektanfang-WEEKDAY(Projektanfang,1)+2+7*(Anzeigewoche-1)</f>
         <v>44896.5</v>
       </c>
-      <c r="J5" s="86">
+      <c r="J5" s="75">
         <f>I5+1</f>
         <v>44897.5</v>
       </c>
-      <c r="K5" s="86">
+      <c r="K5" s="75">
         <f t="shared" ref="K5:AX5" si="0">J5+1</f>
         <v>44898.5</v>
       </c>
-      <c r="L5" s="86">
+      <c r="L5" s="75">
         <f t="shared" si="0"/>
         <v>44899.5</v>
       </c>
-      <c r="M5" s="86">
+      <c r="M5" s="75">
         <f t="shared" si="0"/>
         <v>44900.5</v>
       </c>
-      <c r="N5" s="86">
+      <c r="N5" s="75">
         <f t="shared" si="0"/>
         <v>44901.5</v>
       </c>
-      <c r="O5" s="87">
+      <c r="O5" s="76">
         <f t="shared" si="0"/>
         <v>44902.5</v>
       </c>
-      <c r="P5" s="85">
+      <c r="P5" s="74">
         <f>O5+1</f>
         <v>44903.5</v>
       </c>
-      <c r="Q5" s="86">
+      <c r="Q5" s="75">
         <f>P5+1</f>
         <v>44904.5</v>
       </c>
-      <c r="R5" s="86">
+      <c r="R5" s="75">
         <f t="shared" si="0"/>
         <v>44905.5</v>
       </c>
-      <c r="S5" s="86">
+      <c r="S5" s="75">
         <f t="shared" si="0"/>
         <v>44906.5</v>
       </c>
-      <c r="T5" s="86">
+      <c r="T5" s="75">
         <f t="shared" si="0"/>
         <v>44907.5</v>
       </c>
-      <c r="U5" s="86">
+      <c r="U5" s="75">
         <f t="shared" si="0"/>
         <v>44908.5</v>
       </c>
-      <c r="V5" s="87">
+      <c r="V5" s="76">
         <f t="shared" si="0"/>
         <v>44909.5</v>
       </c>
-      <c r="W5" s="85">
+      <c r="W5" s="74">
         <f>V5+1</f>
         <v>44910.5</v>
       </c>
-      <c r="X5" s="86">
+      <c r="X5" s="75">
         <f>W5+1</f>
         <v>44911.5</v>
       </c>
-      <c r="Y5" s="86">
+      <c r="Y5" s="75">
         <f t="shared" si="0"/>
         <v>44912.5</v>
       </c>
-      <c r="Z5" s="86">
+      <c r="Z5" s="75">
         <f t="shared" si="0"/>
         <v>44913.5</v>
       </c>
-      <c r="AA5" s="86">
+      <c r="AA5" s="75">
         <f t="shared" si="0"/>
         <v>44914.5</v>
       </c>
-      <c r="AB5" s="86">
+      <c r="AB5" s="75">
         <f t="shared" si="0"/>
         <v>44915.5</v>
       </c>
-      <c r="AC5" s="87">
+      <c r="AC5" s="76">
         <f t="shared" si="0"/>
         <v>44916.5</v>
       </c>
-      <c r="AD5" s="85">
+      <c r="AD5" s="74">
         <f>AC5+1</f>
         <v>44917.5</v>
       </c>
-      <c r="AE5" s="86">
+      <c r="AE5" s="75">
         <f>AD5+1</f>
         <v>44918.5</v>
       </c>
-      <c r="AF5" s="86">
+      <c r="AF5" s="75">
         <f t="shared" si="0"/>
         <v>44919.5</v>
       </c>
-      <c r="AG5" s="86">
+      <c r="AG5" s="75">
         <f t="shared" si="0"/>
         <v>44920.5</v>
       </c>
-      <c r="AH5" s="86">
+      <c r="AH5" s="75">
         <f t="shared" si="0"/>
         <v>44921.5</v>
       </c>
-      <c r="AI5" s="86">
+      <c r="AI5" s="75">
         <f t="shared" si="0"/>
         <v>44922.5</v>
       </c>
-      <c r="AJ5" s="87">
+      <c r="AJ5" s="76">
         <f t="shared" si="0"/>
         <v>44923.5</v>
       </c>
-      <c r="AK5" s="85">
+      <c r="AK5" s="74">
         <f>AJ5+1</f>
         <v>44924.5</v>
       </c>
-      <c r="AL5" s="86">
+      <c r="AL5" s="75">
         <f>AK5+1</f>
         <v>44925.5</v>
       </c>
-      <c r="AM5" s="86">
+      <c r="AM5" s="75">
         <f t="shared" si="0"/>
         <v>44926.5</v>
       </c>
-      <c r="AN5" s="86">
+      <c r="AN5" s="75">
         <f t="shared" si="0"/>
         <v>44927.5</v>
       </c>
-      <c r="AO5" s="86">
+      <c r="AO5" s="75">
         <f t="shared" si="0"/>
         <v>44928.5</v>
       </c>
-      <c r="AP5" s="86">
+      <c r="AP5" s="75">
         <f t="shared" si="0"/>
         <v>44929.5</v>
       </c>
-      <c r="AQ5" s="87">
+      <c r="AQ5" s="76">
         <f t="shared" si="0"/>
         <v>44930.5</v>
       </c>
-      <c r="AR5" s="85">
+      <c r="AR5" s="74">
         <f>AQ5+1</f>
         <v>44931.5</v>
       </c>
-      <c r="AS5" s="86">
+      <c r="AS5" s="75">
         <f>AR5+1</f>
         <v>44932.5</v>
       </c>
-      <c r="AT5" s="86">
+      <c r="AT5" s="75">
         <f t="shared" si="0"/>
         <v>44933.5</v>
       </c>
-      <c r="AU5" s="86">
+      <c r="AU5" s="75">
         <f t="shared" si="0"/>
         <v>44934.5</v>
       </c>
-      <c r="AV5" s="86">
+      <c r="AV5" s="75">
         <f t="shared" si="0"/>
         <v>44935.5</v>
       </c>
-      <c r="AW5" s="86">
+      <c r="AW5" s="75">
         <f t="shared" si="0"/>
         <v>44936.5</v>
       </c>
-      <c r="AX5" s="87">
+      <c r="AX5" s="76">
         <f t="shared" si="0"/>
         <v>44937.5</v>
       </c>
-      <c r="AY5" s="85">
+      <c r="AY5" s="74">
         <f>AX5+1</f>
         <v>44938.5</v>
       </c>
-      <c r="AZ5" s="86">
+      <c r="AZ5" s="75">
         <f>AY5+1</f>
         <v>44939.5</v>
       </c>
-      <c r="BA5" s="86">
+      <c r="BA5" s="75">
         <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
         <v>44940.5</v>
       </c>
-      <c r="BB5" s="86">
+      <c r="BB5" s="75">
         <f t="shared" si="1"/>
         <v>44941.5</v>
       </c>
-      <c r="BC5" s="86">
+      <c r="BC5" s="75">
         <f t="shared" si="1"/>
         <v>44942.5</v>
       </c>
-      <c r="BD5" s="86">
+      <c r="BD5" s="75">
         <f t="shared" si="1"/>
         <v>44943.5</v>
       </c>
-      <c r="BE5" s="87">
+      <c r="BE5" s="76">
         <f t="shared" si="1"/>
         <v>44944.5</v>
       </c>
-      <c r="BF5" s="85">
+      <c r="BF5" s="74">
         <f>BE5+1</f>
         <v>44945.5</v>
       </c>
-      <c r="BG5" s="86">
+      <c r="BG5" s="75">
         <f>BF5+1</f>
         <v>44946.5</v>
       </c>
-      <c r="BH5" s="86">
+      <c r="BH5" s="75">
         <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
         <v>44947.5</v>
       </c>
-      <c r="BI5" s="86">
+      <c r="BI5" s="75">
         <f t="shared" si="2"/>
         <v>44948.5</v>
       </c>
-      <c r="BJ5" s="86">
+      <c r="BJ5" s="75">
         <f t="shared" si="2"/>
         <v>44949.5</v>
       </c>
-      <c r="BK5" s="86">
+      <c r="BK5" s="75">
         <f t="shared" si="2"/>
         <v>44950.5</v>
       </c>
-      <c r="BL5" s="87">
+      <c r="BL5" s="76">
         <f t="shared" si="2"/>
         <v>44951.5</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:67" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="36" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2620,7 +2598,7 @@
         <v>D</v>
       </c>
       <c r="AS6" s="10" t="str">
-        <f t="shared" si="4"/>
+        <f>LEFT(TEXT(AS5,"TTT"),1)</f>
         <v>F</v>
       </c>
       <c r="AT6" s="10" t="str">
@@ -2700,11 +2678,11 @@
         <v>M</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:67" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="48"/>
+      <c r="C7" s="38"/>
       <c r="E7"/>
       <c r="H7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -2767,20 +2745,20 @@
       <c r="BK7" s="31"/>
       <c r="BL7" s="31"/>
     </row>
-    <row r="8" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:67" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="52"/>
+        <v>28</v>
+      </c>
+      <c r="C8" s="42"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="71"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14" t="str">
-        <f t="shared" ref="H8:H30" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H35" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="31"/>
@@ -2840,30 +2818,30 @@
       <c r="BK8" s="31"/>
       <c r="BL8" s="31"/>
     </row>
-    <row r="9" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:67" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="53" t="s">
-        <v>45</v>
+      <c r="B9" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>31</v>
       </c>
       <c r="D9" s="17">
-        <v>0.9</v>
-      </c>
-      <c r="E9" s="72">
+        <v>1</v>
+      </c>
+      <c r="E9" s="61">
         <f>Projektanfang</f>
         <v>44904</v>
       </c>
-      <c r="F9" s="72">
-        <v>44911</v>
+      <c r="F9" s="61">
+        <v>44904</v>
       </c>
       <c r="G9" s="14"/>
       <c r="H9" s="14">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I9" s="31"/>
       <c r="J9" s="31"/>
@@ -2922,29 +2900,29 @@
       <c r="BK9" s="31"/>
       <c r="BL9" s="31"/>
     </row>
-    <row r="10" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:67" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>45</v>
+      <c r="B10" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>31</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
       </c>
-      <c r="E10" s="72">
+      <c r="E10" s="61">
         <v>44897</v>
       </c>
-      <c r="F10" s="72">
-        <v>44904</v>
+      <c r="F10" s="61">
+        <v>44897</v>
       </c>
       <c r="G10" s="14"/>
       <c r="H10" s="14">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="31"/>
@@ -3003,17 +2981,17 @@
       <c r="BK10" s="31"/>
       <c r="BL10" s="31"/>
     </row>
-    <row r="11" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="46" t="s">
+    <row r="11" spans="1:67" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="36" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="54"/>
+        <v>42</v>
+      </c>
+      <c r="C11" s="44"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3076,27 +3054,27 @@
       <c r="BK11" s="31"/>
       <c r="BL11" s="31"/>
     </row>
-    <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
-      <c r="B12" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>45</v>
+    <row r="12" spans="1:67" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="36"/>
+      <c r="B12" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>31</v>
       </c>
       <c r="D12" s="20">
         <v>0.9</v>
       </c>
-      <c r="E12" s="75">
-        <v>44904</v>
-      </c>
-      <c r="F12" s="75">
+      <c r="E12" s="64">
+        <v>44911</v>
+      </c>
+      <c r="F12" s="64">
         <v>44911</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I12" s="31"/>
       <c r="J12" s="31"/>
@@ -3155,27 +3133,27 @@
       <c r="BK12" s="31"/>
       <c r="BL12" s="31"/>
     </row>
-    <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="45"/>
-      <c r="B13" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="55" t="s">
-        <v>45</v>
+    <row r="13" spans="1:67" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="35"/>
+      <c r="B13" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="D13" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="E13" s="75">
-        <v>44904</v>
-      </c>
-      <c r="F13" s="75">
+        <v>0.8</v>
+      </c>
+      <c r="E13" s="64">
+        <v>44911</v>
+      </c>
+      <c r="F13" s="64">
         <v>44911</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="14">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I13" s="31"/>
       <c r="J13" s="31"/>
@@ -3234,22 +3212,22 @@
       <c r="BK13" s="31"/>
       <c r="BL13" s="31"/>
     </row>
-    <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="45"/>
-      <c r="B14" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="55" t="s">
-        <v>45</v>
+    <row r="14" spans="1:67" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="35"/>
+      <c r="B14" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>34</v>
       </c>
       <c r="D14" s="20">
         <v>0.8</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="64">
         <v>44911</v>
       </c>
-      <c r="F14" s="75">
-        <v>44918</v>
+      <c r="F14" s="64">
+        <v>44911</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -3310,22 +3288,22 @@
       <c r="BK14" s="31"/>
       <c r="BL14" s="31"/>
     </row>
-    <row r="15" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="45"/>
-      <c r="B15" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="55" t="s">
-        <v>53</v>
+    <row r="15" spans="1:67" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="35"/>
+      <c r="B15" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>35</v>
       </c>
       <c r="D15" s="20">
         <v>0.9</v>
       </c>
-      <c r="E15" s="75">
+      <c r="E15" s="64">
         <v>44911</v>
       </c>
-      <c r="F15" s="75">
-        <v>44918</v>
+      <c r="F15" s="64">
+        <v>44911</v>
       </c>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
@@ -3386,28 +3364,27 @@
       <c r="BK15" s="31"/>
       <c r="BL15" s="31"/>
     </row>
-    <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="45"/>
-      <c r="B16" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>45</v>
+    <row r="16" spans="1:67" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="35"/>
+      <c r="B16" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>36</v>
       </c>
       <c r="D16" s="20">
-        <v>0.6</v>
-      </c>
-      <c r="E16" s="75">
-        <f>F13</f>
-        <v>44911</v>
-      </c>
-      <c r="F16" s="75">
+        <v>0.7</v>
+      </c>
+      <c r="E16" s="64">
+        <v>44918</v>
+      </c>
+      <c r="F16" s="64">
         <v>44918</v>
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="14">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
@@ -3467,16 +3444,16 @@
       <c r="BL16" s="31"/>
     </row>
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="56"/>
+        <v>29</v>
+      </c>
+      <c r="C17" s="46"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="77"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14" t="str">
         <f t="shared" si="5"/>
@@ -3540,24 +3517,26 @@
       <c r="BL17" s="31"/>
     </row>
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="45"/>
-      <c r="B18" s="63" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="78">
+      <c r="A18" s="35"/>
+      <c r="B18" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="67">
         <v>44918</v>
       </c>
-      <c r="F18" s="78">
-        <v>44932</v>
+      <c r="F18" s="67">
+        <v>44918</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
@@ -3617,25 +3596,22 @@
       <c r="BL18" s="31"/>
     </row>
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="45"/>
-      <c r="B19" s="63" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="57" t="s">
-        <v>53</v>
+      <c r="A19" s="35"/>
+      <c r="B19" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="23"/>
-      <c r="E19" s="78">
-        <v>44918</v>
-      </c>
-      <c r="F19" s="78">
+      <c r="E19" s="67">
         <v>44932</v>
       </c>
+      <c r="F19" s="67">
+        <v>44932</v>
+      </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="14">
-        <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
+      <c r="H19" s="14"/>
       <c r="I19" s="31"/>
       <c r="J19" s="31"/>
       <c r="K19" s="31"/>
@@ -3672,8 +3648,7 @@
       <c r="AP19" s="31"/>
       <c r="AQ19" s="31"/>
       <c r="AR19" s="31"/>
-      <c r="AS19" s="31"/>
-      <c r="AT19" s="31"/>
+      <c r="AT19" s="77"/>
       <c r="AU19" s="31"/>
       <c r="AV19" s="31"/>
       <c r="AW19" s="31"/>
@@ -3694,24 +3669,24 @@
       <c r="BL19" s="31"/>
     </row>
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="45"/>
-      <c r="B20" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="57" t="s">
-        <v>54</v>
+      <c r="A20" s="35"/>
+      <c r="B20" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="78">
+      <c r="E20" s="67">
         <v>44918</v>
       </c>
-      <c r="F20" s="78">
-        <v>44932</v>
+      <c r="F20" s="67">
+        <v>44918</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
@@ -3771,18 +3746,18 @@
       <c r="BL20" s="31"/>
     </row>
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="45"/>
-      <c r="B21" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" s="57" t="s">
-        <v>54</v>
+      <c r="A21" s="35"/>
+      <c r="B21" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>35</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="78">
-        <v>44918</v>
-      </c>
-      <c r="F21" s="78">
+      <c r="E21" s="67">
+        <v>44932</v>
+      </c>
+      <c r="F21" s="67">
         <v>44932</v>
       </c>
       <c r="G21" s="14"/>
@@ -3845,24 +3820,24 @@
       <c r="BL21" s="31"/>
     </row>
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="45"/>
-      <c r="B22" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="57" t="s">
-        <v>53</v>
+      <c r="A22" s="35"/>
+      <c r="B22" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>36</v>
       </c>
       <c r="D22" s="23"/>
-      <c r="E22" s="78">
+      <c r="E22" s="67">
         <v>44918</v>
       </c>
-      <c r="F22" s="78">
-        <v>44932</v>
+      <c r="F22" s="67">
+        <v>44918</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14">
         <f t="shared" si="5"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
@@ -3922,25 +3897,22 @@
       <c r="BL22" s="31"/>
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="45"/>
-      <c r="B23" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="57" t="s">
-        <v>45</v>
+      <c r="A23" s="35"/>
+      <c r="B23" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>36</v>
       </c>
       <c r="D23" s="23"/>
-      <c r="E23" s="78">
+      <c r="E23" s="67">
         <v>44932</v>
       </c>
-      <c r="F23" s="78">
-        <v>44939</v>
+      <c r="F23" s="67">
+        <v>44932</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="14">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
+      <c r="H23" s="14"/>
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
       <c r="K23" s="31"/>
@@ -3999,21 +3971,22 @@
       <c r="BL23" s="31"/>
     </row>
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="80"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="67">
+        <v>44918</v>
+      </c>
+      <c r="F24" s="67">
+        <v>44918</v>
+      </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H24" s="14"/>
       <c r="I24" s="31"/>
       <c r="J24" s="31"/>
       <c r="K24" s="31"/>
@@ -4072,25 +4045,22 @@
       <c r="BL24" s="31"/>
     </row>
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="45"/>
-      <c r="B25" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="81">
-        <v>44939</v>
-      </c>
-      <c r="F25" s="81">
-        <v>44946</v>
+      <c r="A25" s="35"/>
+      <c r="B25" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="67">
+        <v>44932</v>
+      </c>
+      <c r="F25" s="67">
+        <v>44932</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="14">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
+      <c r="H25" s="14"/>
       <c r="I25" s="31"/>
       <c r="J25" s="31"/>
       <c r="K25" s="31"/>
@@ -4149,24 +4119,24 @@
       <c r="BL25" s="31"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="45"/>
-      <c r="B26" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="81">
-        <v>44939</v>
-      </c>
-      <c r="F26" s="81">
-        <v>44946</v>
+      <c r="A26" s="35"/>
+      <c r="B26" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="67">
+        <v>44918</v>
+      </c>
+      <c r="F26" s="67">
+        <v>44918</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I26" s="31"/>
       <c r="J26" s="31"/>
@@ -4226,24 +4196,24 @@
       <c r="BL26" s="31"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="45"/>
-      <c r="B27" s="64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="81">
-        <v>44946</v>
-      </c>
-      <c r="F27" s="81">
-        <v>44953</v>
+      <c r="A27" s="35"/>
+      <c r="B27" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="67">
+        <v>44939</v>
+      </c>
+      <c r="F27" s="67">
+        <v>44939</v>
       </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I27" s="31"/>
       <c r="J27" s="31"/>
@@ -4303,24 +4273,20 @@
       <c r="BL27" s="31"/>
     </row>
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="45"/>
-      <c r="B28" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="81">
-        <v>44953</v>
-      </c>
-      <c r="F28" s="81">
-        <v>44960</v>
-      </c>
+      <c r="A28" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="48"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="14">
+      <c r="H28" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
@@ -4380,18 +4346,24 @@
       <c r="BL28" s="31"/>
     </row>
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="70">
+        <v>44946</v>
+      </c>
+      <c r="F29" s="70">
+        <v>44946</v>
+      </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="14" t="str">
+      <c r="H29" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
@@ -4451,87 +4423,463 @@
       <c r="BL29" s="31"/>
     </row>
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30" t="str">
+      <c r="A30" s="35"/>
+      <c r="B30" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="70">
+        <v>44946</v>
+      </c>
+      <c r="F30" s="70">
+        <v>44946</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="31"/>
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="31"/>
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="31"/>
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="31"/>
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="31"/>
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="31"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="31"/>
+      <c r="BC30" s="31"/>
+      <c r="BD30" s="31"/>
+      <c r="BE30" s="31"/>
+      <c r="BF30" s="31"/>
+      <c r="BG30" s="31"/>
+      <c r="BH30" s="31"/>
+      <c r="BI30" s="31"/>
+      <c r="BJ30" s="31"/>
+      <c r="BK30" s="31"/>
+      <c r="BL30" s="31"/>
+    </row>
+    <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="35"/>
+      <c r="B31" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="70">
+        <v>44953</v>
+      </c>
+      <c r="F31" s="70">
+        <v>44953</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="Q31" s="31"/>
+      <c r="R31" s="31"/>
+      <c r="S31" s="31"/>
+      <c r="T31" s="31"/>
+      <c r="U31" s="31"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="31"/>
+      <c r="Y31" s="31"/>
+      <c r="Z31" s="31"/>
+      <c r="AA31" s="31"/>
+      <c r="AB31" s="31"/>
+      <c r="AC31" s="31"/>
+      <c r="AD31" s="31"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="31"/>
+      <c r="AI31" s="31"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="31"/>
+      <c r="AL31" s="31"/>
+      <c r="AM31" s="31"/>
+      <c r="AN31" s="31"/>
+      <c r="AO31" s="31"/>
+      <c r="AP31" s="31"/>
+      <c r="AQ31" s="31"/>
+      <c r="AR31" s="31"/>
+      <c r="AS31" s="31"/>
+      <c r="AT31" s="31"/>
+      <c r="AU31" s="31"/>
+      <c r="AV31" s="31"/>
+      <c r="AW31" s="31"/>
+      <c r="AX31" s="31"/>
+      <c r="AY31" s="31"/>
+      <c r="AZ31" s="31"/>
+      <c r="BA31" s="31"/>
+      <c r="BB31" s="31"/>
+      <c r="BC31" s="31"/>
+      <c r="BD31" s="31"/>
+      <c r="BE31" s="31"/>
+      <c r="BF31" s="31"/>
+      <c r="BG31" s="31"/>
+      <c r="BH31" s="31"/>
+      <c r="BI31" s="31"/>
+      <c r="BJ31" s="31"/>
+      <c r="BK31" s="31"/>
+      <c r="BL31" s="31"/>
+    </row>
+    <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="35"/>
+      <c r="B32" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="70">
+        <v>44953</v>
+      </c>
+      <c r="F32" s="70">
+        <v>44953</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="31"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="31"/>
+      <c r="AB32" s="31"/>
+      <c r="AC32" s="31"/>
+      <c r="AD32" s="31"/>
+      <c r="AE32" s="31"/>
+      <c r="AF32" s="31"/>
+      <c r="AG32" s="31"/>
+      <c r="AH32" s="31"/>
+      <c r="AI32" s="31"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="31"/>
+      <c r="AL32" s="31"/>
+      <c r="AM32" s="31"/>
+      <c r="AN32" s="31"/>
+      <c r="AO32" s="31"/>
+      <c r="AP32" s="31"/>
+      <c r="AQ32" s="31"/>
+      <c r="AR32" s="31"/>
+      <c r="AS32" s="31"/>
+      <c r="AT32" s="31"/>
+      <c r="AU32" s="31"/>
+      <c r="AV32" s="31"/>
+      <c r="AW32" s="31"/>
+      <c r="AX32" s="31"/>
+      <c r="AY32" s="31"/>
+      <c r="AZ32" s="31"/>
+      <c r="BA32" s="31"/>
+      <c r="BB32" s="31"/>
+      <c r="BC32" s="31"/>
+      <c r="BD32" s="31"/>
+      <c r="BE32" s="31"/>
+      <c r="BF32" s="31"/>
+      <c r="BG32" s="31"/>
+      <c r="BH32" s="31"/>
+      <c r="BI32" s="31"/>
+      <c r="BJ32" s="31"/>
+      <c r="BK32" s="31"/>
+      <c r="BL32" s="31"/>
+    </row>
+    <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="35"/>
+      <c r="B33" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="70">
+        <v>44960</v>
+      </c>
+      <c r="F33" s="70">
+        <v>44960</v>
+      </c>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="31"/>
+      <c r="U33" s="31"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="31"/>
+      <c r="Y33" s="31"/>
+      <c r="Z33" s="31"/>
+      <c r="AA33" s="31"/>
+      <c r="AB33" s="31"/>
+      <c r="AC33" s="31"/>
+      <c r="AD33" s="31"/>
+      <c r="AE33" s="31"/>
+      <c r="AF33" s="31"/>
+      <c r="AG33" s="31"/>
+      <c r="AH33" s="31"/>
+      <c r="AI33" s="31"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="31"/>
+      <c r="AL33" s="31"/>
+      <c r="AM33" s="31"/>
+      <c r="AN33" s="31"/>
+      <c r="AO33" s="31"/>
+      <c r="AP33" s="31"/>
+      <c r="AQ33" s="31"/>
+      <c r="AR33" s="31"/>
+      <c r="AS33" s="31"/>
+      <c r="AT33" s="31"/>
+      <c r="AU33" s="31"/>
+      <c r="AV33" s="31"/>
+      <c r="AW33" s="31"/>
+      <c r="AX33" s="31"/>
+      <c r="AY33" s="31"/>
+      <c r="AZ33" s="31"/>
+      <c r="BA33" s="31"/>
+      <c r="BB33" s="31"/>
+      <c r="BC33" s="31"/>
+      <c r="BD33" s="31"/>
+      <c r="BE33" s="31"/>
+      <c r="BF33" s="31"/>
+      <c r="BG33" s="31"/>
+      <c r="BH33" s="31"/>
+      <c r="BI33" s="31"/>
+      <c r="BJ33" s="31"/>
+      <c r="BK33" s="31"/>
+      <c r="BL33" s="31"/>
+    </row>
+    <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="55"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="33"/>
-      <c r="AD30" s="33"/>
-      <c r="AE30" s="33"/>
-      <c r="AF30" s="33"/>
-      <c r="AG30" s="33"/>
-      <c r="AH30" s="33"/>
-      <c r="AI30" s="33"/>
-      <c r="AJ30" s="33"/>
-      <c r="AK30" s="33"/>
-      <c r="AL30" s="33"/>
-      <c r="AM30" s="33"/>
-      <c r="AN30" s="33"/>
-      <c r="AO30" s="33"/>
-      <c r="AP30" s="33"/>
-      <c r="AQ30" s="33"/>
-      <c r="AR30" s="33"/>
-      <c r="AS30" s="33"/>
-      <c r="AT30" s="33"/>
-      <c r="AU30" s="33"/>
-      <c r="AV30" s="33"/>
-      <c r="AW30" s="33"/>
-      <c r="AX30" s="33"/>
-      <c r="AY30" s="33"/>
-      <c r="AZ30" s="33"/>
-      <c r="BA30" s="33"/>
-      <c r="BB30" s="33"/>
-      <c r="BC30" s="33"/>
-      <c r="BD30" s="33"/>
-      <c r="BE30" s="33"/>
-      <c r="BF30" s="33"/>
-      <c r="BG30" s="33"/>
-      <c r="BH30" s="33"/>
-      <c r="BI30" s="33"/>
-      <c r="BJ30" s="33"/>
-      <c r="BK30" s="33"/>
-      <c r="BL30" s="33"/>
-    </row>
-    <row r="31" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G31" s="6"/>
-    </row>
-    <row r="32" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="11"/>
-      <c r="F32" s="47"/>
-    </row>
-    <row r="33" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="12"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="31"/>
+      <c r="S34" s="31"/>
+      <c r="T34" s="31"/>
+      <c r="U34" s="31"/>
+      <c r="V34" s="31"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="31"/>
+      <c r="Y34" s="31"/>
+      <c r="Z34" s="31"/>
+      <c r="AA34" s="31"/>
+      <c r="AB34" s="31"/>
+      <c r="AC34" s="31"/>
+      <c r="AD34" s="31"/>
+      <c r="AE34" s="31"/>
+      <c r="AF34" s="31"/>
+      <c r="AG34" s="31"/>
+      <c r="AH34" s="31"/>
+      <c r="AI34" s="31"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="31"/>
+      <c r="AL34" s="31"/>
+      <c r="AM34" s="31"/>
+      <c r="AN34" s="31"/>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
+      <c r="AQ34" s="31"/>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="31"/>
+      <c r="AT34" s="31"/>
+      <c r="AU34" s="31"/>
+      <c r="AV34" s="31"/>
+      <c r="AW34" s="31"/>
+      <c r="AX34" s="31"/>
+      <c r="AY34" s="31"/>
+      <c r="AZ34" s="31"/>
+      <c r="BA34" s="31"/>
+      <c r="BB34" s="31"/>
+      <c r="BC34" s="31"/>
+      <c r="BD34" s="31"/>
+      <c r="BE34" s="31"/>
+      <c r="BF34" s="31"/>
+      <c r="BG34" s="31"/>
+      <c r="BH34" s="31"/>
+      <c r="BI34" s="31"/>
+      <c r="BJ34" s="31"/>
+      <c r="BK34" s="31"/>
+      <c r="BL34" s="31"/>
+    </row>
+    <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="33"/>
+      <c r="AD35" s="33"/>
+      <c r="AE35" s="33"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="33"/>
+      <c r="AL35" s="33"/>
+      <c r="AM35" s="33"/>
+      <c r="AN35" s="33"/>
+      <c r="AO35" s="33"/>
+      <c r="AP35" s="33"/>
+      <c r="AQ35" s="33"/>
+      <c r="AR35" s="33"/>
+      <c r="AS35" s="33"/>
+      <c r="AT35" s="33"/>
+      <c r="AU35" s="33"/>
+      <c r="AV35" s="33"/>
+      <c r="AW35" s="33"/>
+      <c r="AX35" s="33"/>
+      <c r="AY35" s="33"/>
+      <c r="AZ35" s="33"/>
+      <c r="BA35" s="33"/>
+      <c r="BB35" s="33"/>
+      <c r="BC35" s="33"/>
+      <c r="BD35" s="33"/>
+      <c r="BE35" s="33"/>
+      <c r="BF35" s="33"/>
+      <c r="BG35" s="33"/>
+      <c r="BH35" s="33"/>
+      <c r="BI35" s="33"/>
+      <c r="BJ35" s="33"/>
+      <c r="BK35" s="33"/>
+      <c r="BL35" s="33"/>
+    </row>
+    <row r="36" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="11"/>
+      <c r="F37" s="37"/>
+    </row>
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4547,7 +4895,7 @@
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D30">
+  <conditionalFormatting sqref="D7:D35">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -4561,17 +4909,30 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL30">
-    <cfRule type="expression" dxfId="2" priority="33">
+  <conditionalFormatting sqref="I5:BL18 I20:BL35 I19:AR19 AU19:BL19">
+    <cfRule type="expression" dxfId="5" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL30">
-    <cfRule type="expression" dxfId="1" priority="27">
+  <conditionalFormatting sqref="I7:BL18 I20:BL35 I19:AR19 AU19:BL19">
+    <cfRule type="expression" dxfId="4" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT19">
+    <cfRule type="expression" dxfId="2" priority="35">
+      <formula>AND(TODAY()&gt;=AS$5,TODAY()&lt;AT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT19">
+    <cfRule type="expression" dxfId="1" priority="38">
+      <formula>AND(task_start&lt;=AS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AS$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="39" stopIfTrue="1">
+      <formula>AND(task_end&gt;=AS$5,task_start&lt;AT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4606,7 +4967,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D30</xm:sqref>
+          <xm:sqref>D7:D35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4615,105 +4976,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2227C60-9D79-4D61-B12C-DE482400E99C}">
+  <dimension ref="B3:C32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="104.7265625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="2"/>
+    <col min="2" max="2" width="36.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="36"/>
-    </row>
-    <row r="3" spans="1:2" s="41" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="42"/>
-    </row>
-    <row r="4" spans="1:2" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A4" s="39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="74.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="35" customFormat="1" ht="205" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="44" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A8" s="39" t="s">
+    <row r="3" spans="2:3" ht="26" x14ac:dyDescent="0.6">
+      <c r="B3" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="79" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" s="35" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A11" s="39" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" s="35" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A14" s="39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
-        <v>37</v>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
